--- a/MapView Renderer/Config/Config.xlsx
+++ b/MapView Renderer/Config/Config.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{760D9103-014D-4D88-B522-A16517E56F68}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99DB0034-C883-4779-B96C-32A572C7685C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Field</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>P:\INBLD\Digital\RPA\07-Others\UiPath Hackathon\MapView Renderer\ClassItems\Template\</t>
+  </si>
+  <si>
+    <t>GoogleAPI</t>
+  </si>
+  <si>
+    <t>apikey</t>
   </si>
 </sst>
 </file>
@@ -451,15 +457,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="97" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -470,7 +476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -481,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -492,7 +498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -503,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -514,84 +520,90 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="11"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="9"/>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="8"/>
     </row>
